--- a/Camera/Materials_Bill.xlsx
+++ b/Camera/Materials_Bill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jzawadzki_tudelft_nl/Documents/TUDelft_Acapulco/Acapulco_OpenHardware_Repo/Acapulco-Sensors/Camera/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_F25DC773A252ABDACC10482A519B7AC25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479980CD-2858-4CA1-A47B-A45410EC1655}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Component</t>
+  </si>
+  <si>
+    <t>Miscellaneous hardware</t>
+  </si>
+  <si>
+    <t>Add-on to Raspberry Pi enabling power and data input with just one ethernet cable</t>
+  </si>
+  <si>
+    <t>MikroElektronika Ambient 2 Click Light Sensor mikroBus Click Board</t>
+  </si>
+  <si>
+    <t>The laser cut elements for cube box assembly. 3mm MDF or other hard sturdy material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Link     </t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/sensor-development-tools/1360740</t>
+  </si>
+  <si>
+    <t>Ethernet cable</t>
+  </si>
+  <si>
+    <t>Ethernet cable for connection, lenght as needed</t>
+  </si>
+  <si>
+    <t>https://www.allekabels.nl/utp-kabel/7390/1098220/uutp-kabel-cat-5e.html</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B (or other)</t>
+  </si>
+  <si>
+    <t>Small form-factor computer. The design also works with other models.</t>
+  </si>
+  <si>
+    <t>Ambient 2 Click sensor</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Camera</t>
+  </si>
+  <si>
+    <t>3D printed parts</t>
+  </si>
+  <si>
+    <t>Laser-cut MDF parts</t>
+  </si>
+  <si>
+    <t>Screws, bolts, nuts, wiring, Rpi camera cable, etc.</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.com/products/raspberry-pi-4-model-b/</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 PoE HAT</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.com/products/poe-plus-hat/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +105,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +136,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +440,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9BC79A2A-8DED-447F-99F2-2F96BCD79CD2}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{89226207-CD79-4B62-A21C-8B161CC5A511}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{31D616A1-B82D-41FF-8D6B-82EDFA4EAF7A}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{F0E1CAE4-FAD5-4C50-9B19-7623B519959F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Camera/Materials_Bill.xlsx
+++ b/Camera/Materials_Bill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jzawadzki_tudelft_nl/Documents/TUDelft_Acapulco/Acapulco_OpenHardware_Repo/Acapulco-Sensors/Camera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_F25DC773A252ABDACC10482A519B7AC25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479980CD-2858-4CA1-A47B-A45410EC1655}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC10482A519B7AC25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB570597-7144-4BC5-BDE9-6DC0097DB70C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Description</t>
   </si>
@@ -45,9 +45,6 @@
     <t>MikroElektronika Ambient 2 Click Light Sensor mikroBus Click Board</t>
   </si>
   <si>
-    <t>The laser cut elements for cube box assembly. 3mm MDF or other hard sturdy material.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample Link     </t>
   </si>
   <si>
@@ -91,6 +88,21 @@
   </si>
   <si>
     <t>https://www.raspberrypi.com/products/poe-plus-hat/</t>
+  </si>
+  <si>
+    <t>High quality, preferably stereolitography polyjet, resin or similar, pla will not cut it</t>
+  </si>
+  <si>
+    <t>Optional laser cut elements. 3mm MDF or other hard sturdy material.</t>
+  </si>
+  <si>
+    <t>depends on your local availability</t>
+  </si>
+  <si>
+    <t>180° fisheye camera for Raspberry Pi, Arducam Mini imx477 with 180° LN031 fisheye lens</t>
+  </si>
+  <si>
+    <t>https://www.arducam.com/product/arducam-mini-high-quality-camera-with-m12-mount-lens-for-raspberry-pi-cm-cm3-cm3-cm4-b0271/</t>
   </si>
 </sst>
 </file>
@@ -176,6 +188,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +460,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +468,7 @@
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,26 +482,26 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -494,21 +510,26 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -517,41 +538,49 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -568,6 +597,7 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{89226207-CD79-4B62-A21C-8B161CC5A511}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{31D616A1-B82D-41FF-8D6B-82EDFA4EAF7A}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{F0E1CAE4-FAD5-4C50-9B19-7623B519959F}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{A71A04F1-A0F2-4C23-8606-D9B6ABCB3D96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
